--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1274279D-AC56-42FF-8A40-8DBC36F30CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE988DA8-AFB8-4348-9D49-2F4A9852423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="2900" yWindow="340" windowWidth="14400" windowHeight="7360" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_Life_Details" sheetId="1" r:id="rId1"/>
+    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
     <sheet name="PLA" sheetId="5" r:id="rId2"/>
-    <sheet name="Wider" sheetId="7" r:id="rId3"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId4"/>
+    <sheet name="Affordability_Check" sheetId="8" r:id="rId3"/>
+    <sheet name="Extended" sheetId="7" r:id="rId4"/>
+    <sheet name="Parent" sheetId="11" r:id="rId5"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId6"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId7"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId8"/>
+    <sheet name="Child" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>Town</t>
   </si>
@@ -109,13 +114,100 @@
   </si>
   <si>
     <t>Scenario_ID</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Safrican</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Net_Salary</t>
+  </si>
+  <si>
+    <t>Additional_Income</t>
+  </si>
+  <si>
+    <t>Existing_FinancialCover</t>
+  </si>
+  <si>
+    <t>School_Fees</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Retail_accounts</t>
+  </si>
+  <si>
+    <t>Cellphone</t>
+  </si>
+  <si>
+    <t>Mortgage_Rent</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Entertainment_Other</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>9910071643085</t>
+  </si>
+  <si>
+    <t>0789654565</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Truly good</t>
+  </si>
+  <si>
+    <t>Salary_PayDate</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>PLA1</t>
+  </si>
+  <si>
+    <t>Parent1</t>
+  </si>
+  <si>
+    <t>Child1</t>
+  </si>
+  <si>
+    <t>Child2</t>
+  </si>
+  <si>
+    <t>LindoKuhle</t>
+  </si>
+  <si>
+    <t>SpouseMax1</t>
+  </si>
+  <si>
+    <t>Extended_RelationshipType</t>
+  </si>
+  <si>
+    <t>Cousin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +230,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,10 +245,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -164,10 +288,29 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,12 +629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
@@ -504,87 +648,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>830678899</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -598,20 +751,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786073B4-85CC-4556-90E2-B38B107A54B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <v>830678899</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{FA2EA09A-70B7-4B52-B4E3-A0751D163E8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>25000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>800</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7000</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -619,28 +1022,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7">
+        <v>36202</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>830678899</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10">
+        <v>62429363625</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE988DA8-AFB8-4348-9D49-2F4A9852423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEECF40-05B2-4D7E-A5EB-89D9E8042F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="340" windowWidth="14400" windowHeight="7360" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="PLA" sheetId="5" r:id="rId2"/>
-    <sheet name="Affordability_Check" sheetId="8" r:id="rId3"/>
-    <sheet name="Extended" sheetId="7" r:id="rId4"/>
-    <sheet name="Parent" sheetId="11" r:id="rId5"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId6"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId7"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="PLA" sheetId="5" r:id="rId3"/>
+    <sheet name="Affordability_Check" sheetId="8" r:id="rId4"/>
+    <sheet name="Extended" sheetId="7" r:id="rId5"/>
+    <sheet name="Parent" sheetId="11" r:id="rId6"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId7"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId8"/>
     <sheet name="Child" sheetId="12" r:id="rId9"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>Town</t>
   </si>
@@ -201,13 +202,34 @@
   </si>
   <si>
     <t>Cousin</t>
+  </si>
+  <si>
+    <t>Cover Amount</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Extended</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,16 +258,60 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,6 +345,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -288,7 +380,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -311,6 +403,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -319,6 +436,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9966FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -629,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -749,7 +871,427 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>830678899</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10">
+        <v>62429363625</v>
+      </c>
+      <c r="G2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H4" s="15">
+        <v>14.2857</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="15">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="15">
+        <v>42.857100000000003</v>
+      </c>
+      <c r="I6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>80</v>
+      </c>
+      <c r="G7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="15">
+        <v>57.142899999999997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="15">
+        <v>71.428600000000003</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="14">
+        <v>85.714299999999994</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786073B4-85CC-4556-90E2-B38B107A54B7}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -859,7 +1401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K2"/>
@@ -954,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1022,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1083,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1146,7 +1688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1208,78 +1750,6 @@
       <c r="G7" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10">
-        <v>62429363625</v>
-      </c>
-      <c r="G2" s="2">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEECF40-05B2-4D7E-A5EB-89D9E8042F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5998F0D-E0EA-4D83-9118-A162085E6B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="CoverAmount" sheetId="13" r:id="rId2"/>
     <sheet name="PLA" sheetId="5" r:id="rId3"/>
     <sheet name="Affordability_Check" sheetId="8" r:id="rId4"/>
     <sheet name="Extended" sheetId="7" r:id="rId5"/>
@@ -413,12 +413,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -427,6 +421,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -948,7 +948,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,56 +962,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>54</v>
       </c>
     </row>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE988DA8-AFB8-4348-9D49-2F4A9852423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095F0F3-8789-4BFD-8DBC-8CF6086101E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="340" windowWidth="14400" windowHeight="7360" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Town</t>
   </si>
@@ -201,6 +201,33 @@
   </si>
   <si>
     <t>Cousin</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>BLACKAFRICAN</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>Salary_frequency</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>0830678899</t>
   </si>
 </sst>
 </file>
@@ -245,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -279,6 +306,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -288,7 +324,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -311,6 +347,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,125 +666,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>10000</v>
       </c>
+      <c r="Q2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="13">
+        <v>35919</v>
+      </c>
+      <c r="U2" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{3A891493-FF5F-4607-B4EA-6D261917ED0A}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{3A891493-FF5F-4607-B4EA-6D261917ED0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -862,89 +939,96 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>25000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>3000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>4000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>800</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1200</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>1000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7000</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>5000</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>6000</v>
       </c>
     </row>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEECF40-05B2-4D7E-A5EB-89D9E8042F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB8164-379E-4D9B-8AE1-26BEB551AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
   <si>
     <t>Town</t>
   </si>
@@ -223,6 +223,33 @@
   </si>
   <si>
     <t>Extended</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>0830678899</t>
+  </si>
+  <si>
+    <t>BLACKAFRICAN</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Salary_frequency</t>
+  </si>
+  <si>
+    <t>Permanent</t>
   </si>
 </sst>
 </file>
@@ -311,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -371,6 +398,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -380,7 +416,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -413,12 +449,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -428,6 +458,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -749,123 +788,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="Q1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>10000</v>
       </c>
+      <c r="Q2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="22">
+        <v>35919</v>
+      </c>
+      <c r="U2" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{3A891493-FF5F-4607-B4EA-6D261917ED0A}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{42742CB4-A7C8-4D82-AC3E-A6109761F8E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -947,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -962,56 +1038,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>54</v>
       </c>
     </row>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEECF40-05B2-4D7E-A5EB-89D9E8042F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A5DD43-8129-48F8-974A-DB17C9B5D4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="10" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="Scroler" sheetId="13" r:id="rId2"/>
     <sheet name="PLA" sheetId="5" r:id="rId3"/>
     <sheet name="Affordability_Check" sheetId="8" r:id="rId4"/>
     <sheet name="Extended" sheetId="7" r:id="rId5"/>
@@ -23,6 +23,7 @@
     <sheet name="Beneficiaries" sheetId="9" r:id="rId8"/>
     <sheet name="Child" sheetId="12" r:id="rId9"/>
     <sheet name="PolicyPayer" sheetId="10" r:id="rId10"/>
+    <sheet name="BankDetails" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>Town</t>
   </si>
@@ -204,12 +205,6 @@
     <t>Cousin</t>
   </si>
   <si>
-    <t>Cover Amount</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
     <t>Self</t>
   </si>
   <si>
@@ -223,6 +218,60 @@
   </si>
   <si>
     <t>Extended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PercentagePayout </t>
+  </si>
+  <si>
+    <t>CoverAmountS</t>
+  </si>
+  <si>
+    <t>CoverAmountSP</t>
+  </si>
+  <si>
+    <t>CoverAmountP</t>
+  </si>
+  <si>
+    <t>CoverAmountC</t>
+  </si>
+  <si>
+    <t>CoverAmountE</t>
+  </si>
+  <si>
+    <t>widthS</t>
+  </si>
+  <si>
+    <t>widthSP</t>
+  </si>
+  <si>
+    <t>widthP</t>
+  </si>
+  <si>
+    <t>widthC</t>
+  </si>
+  <si>
+    <t>widthE</t>
+  </si>
+  <si>
+    <t>widthPP</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>SalaryPaydate</t>
+  </si>
+  <si>
+    <t>FIRST NATIONAL BANK</t>
+  </si>
+  <si>
+    <t>debitOrderday</t>
   </si>
 </sst>
 </file>
@@ -311,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -371,6 +420,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -380,7 +451,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -413,12 +484,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -428,6 +493,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,79 +1023,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5742EF1-81B6-4D29-8062-C3F3570B2BE5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L2" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>5000</v>
       </c>
@@ -1046,8 +1181,14 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>7500</v>
       </c>
@@ -1079,7 +1220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>10000</v>
       </c>
@@ -1111,7 +1252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>15000</v>
       </c>
@@ -1143,7 +1284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>20000</v>
       </c>
@@ -1175,7 +1316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>30000</v>
       </c>
@@ -1207,7 +1348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>40000</v>
       </c>
@@ -1231,7 +1372,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>50000</v>
       </c>
@@ -1255,7 +1396,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>60000</v>
       </c>
@@ -1275,11 +1416,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB8164-379E-4D9B-8AE1-26BEB551AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB497BB5-D987-477B-814F-C5436D39F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
-    <sheet name="PLA" sheetId="5" r:id="rId3"/>
-    <sheet name="Affordability_Check" sheetId="8" r:id="rId4"/>
-    <sheet name="Extended" sheetId="7" r:id="rId5"/>
-    <sheet name="Parent" sheetId="11" r:id="rId6"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId7"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId8"/>
-    <sheet name="Child" sheetId="12" r:id="rId9"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId10"/>
+    <sheet name="CoverAmount" sheetId="16" r:id="rId2"/>
+    <sheet name="CoverDropDown" sheetId="14" r:id="rId3"/>
+    <sheet name="Cover_Coordinates" sheetId="13" r:id="rId4"/>
+    <sheet name="PLA" sheetId="5" r:id="rId5"/>
+    <sheet name="Affordability_Check" sheetId="8" r:id="rId6"/>
+    <sheet name="Extended" sheetId="7" r:id="rId7"/>
+    <sheet name="Parent" sheetId="11" r:id="rId8"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId9"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId10"/>
+    <sheet name="Child" sheetId="12" r:id="rId11"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>Town</t>
   </si>
@@ -225,31 +227,13 @@
     <t>Extended</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>0830678899</t>
-  </si>
-  <si>
-    <t>BLACKAFRICAN</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Salary_frequency</t>
-  </si>
-  <si>
-    <t>Permanent</t>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Cover_Amount</t>
+  </si>
+  <si>
+    <t>Myself</t>
   </si>
 </sst>
 </file>
@@ -338,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -398,15 +382,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -416,7 +391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -464,9 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -788,166 +760,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="J2" s="2">
+        <v>830678899</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="M2" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="2">
+      <c r="O2" s="2">
         <v>10000</v>
       </c>
-      <c r="Q2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="22">
-        <v>35919</v>
-      </c>
-      <c r="U2" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{42742CB4-A7C8-4D82-AC3E-A6109761F8E7}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{3A891493-FF5F-4607-B4EA-6D261917ED0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7">
+        <v>36202</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1020,11 +1094,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884330D-945B-460E-9013-EA13CCDB12FF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16E40F73-26F5-4C00-8505-E173D1067E16}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$A$3:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CCE722E-BA70-4DAE-84B2-2685D054C6B5}">
+          <x14:formula1>
+            <xm:f>CoverDropDown!$C$1:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655D703-28F5-487A-8779-E3AC589F989A}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>7500</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>60000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,7 +1432,7 @@
         <v>10000</v>
       </c>
       <c r="F5" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3">
         <v>10000</v>
@@ -1204,7 +1464,7 @@
         <v>15000</v>
       </c>
       <c r="F6" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3">
         <v>15000</v>
@@ -1236,7 +1496,7 @@
         <v>20000</v>
       </c>
       <c r="F7" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3">
         <v>20000</v>
@@ -1264,12 +1524,8 @@
       <c r="D8" s="3">
         <v>62.5</v>
       </c>
-      <c r="E8" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>30000</v>
       </c>
@@ -1346,7 +1602,9 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>60000</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1367,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786073B4-85CC-4556-90E2-B38B107A54B7}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1477,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K2"/>
@@ -1572,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1640,7 +1898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1701,7 +1959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1762,143 +2020,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7">
-        <v>36202</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB497BB5-D987-477B-814F-C5436D39F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE131A91-8855-4000-8033-B9DFCCDE087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>Town</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Myself</t>
+  </si>
+  <si>
+    <t>Scenaro_id</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884330D-945B-460E-9013-EA13CCDB12FF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1738,89 +1741,95 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>25000</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>3000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>4000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>800</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1200</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>1000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>7000</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>5000</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>6000</v>
       </c>
     </row>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE131A91-8855-4000-8033-B9DFCCDE087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737CA5AC-9B01-4570-91F5-A3CE72395CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="Cover_Coordinates" sheetId="13" r:id="rId4"/>
     <sheet name="PLA" sheetId="5" r:id="rId5"/>
     <sheet name="Affordability_Check" sheetId="8" r:id="rId6"/>
-    <sheet name="Extended" sheetId="7" r:id="rId7"/>
-    <sheet name="Parent" sheetId="11" r:id="rId8"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId9"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId10"/>
-    <sheet name="Child" sheetId="12" r:id="rId11"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId7"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId8"/>
+    <sheet name="Extended" sheetId="7" r:id="rId9"/>
+    <sheet name="Parent" sheetId="11" r:id="rId10"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId11"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId12"/>
+    <sheet name="Child" sheetId="12" r:id="rId13"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
   <si>
     <t>Town</t>
   </si>
@@ -197,9 +199,6 @@
     <t>LindoKuhle</t>
   </si>
   <si>
-    <t>SpouseMax1</t>
-  </si>
-  <si>
     <t>Extended_RelationshipType</t>
   </si>
   <si>
@@ -237,13 +236,143 @@
   </si>
   <si>
     <t>Scenaro_id</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Scenario detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expecteced Result </t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Test__Date</t>
+  </si>
+  <si>
+    <t>Test Passed</t>
+  </si>
+  <si>
+    <t>Test Failed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Total</t>
+    </r>
+  </si>
+  <si>
+    <t>New Business</t>
+  </si>
+  <si>
+    <t>Validations</t>
+  </si>
+  <si>
+    <t>Maximum Validation for spouse</t>
+  </si>
+  <si>
+    <t>Maximum Validation for Child</t>
+  </si>
+  <si>
+    <t>Maximum Validation for Parent</t>
+  </si>
+  <si>
+    <t>Maximum Validation for Extended</t>
+  </si>
+  <si>
+    <t>Maximum Validation for self</t>
+  </si>
+  <si>
+    <t>Minimum Validation for self</t>
+  </si>
+  <si>
+    <t>Minimum Validation for spouse</t>
+  </si>
+  <si>
+    <t>Maximum Validation for spouser</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>MaxSpouse</t>
+  </si>
+  <si>
+    <t>MaxChild</t>
+  </si>
+  <si>
+    <t>MaxParent</t>
+  </si>
+  <si>
+    <t>MaxExtended</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Minspouse</t>
+  </si>
+  <si>
+    <t>Maxspouse</t>
+  </si>
+  <si>
+    <t>Maxsel</t>
+  </si>
+  <si>
+    <t>Minsel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +427,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +503,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA082F6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -385,6 +576,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -394,7 +644,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -442,13 +692,439 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{501A4514-B1BB-400C-AFA1-8FE92D854DF2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFA082F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -464,6 +1140,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J9" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8ECCF095-A47A-4446-88DE-C20C9EA98F17}" name="Scenario" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{7C56597E-D0E3-4A56-AB5D-05FE23C6E903}" name="Action" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A6197CED-E60A-4FA0-B975-C7AAB97218D2}" name="Functions" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{CD1BEAF3-C27B-4209-B9B1-E5180FA9BCCB}" name="Scenario detail" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{75B480A5-EDCD-4306-BA1C-18ECE9AAAA09}" name="Expecteced Result " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B7BB90DE-DDCC-4FBC-8023-957CDA7ABAC9}" name="Comment" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{38E0EF8D-3901-4056-AA3F-B5BA1F059947}" name="Test Result" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{20682D0F-D730-43CC-A849-D092705CEA7C}" name="Test__Date" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,6 +1581,130 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -951,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1024,7 +1843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1111,15 +1930,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>60000</v>
@@ -1127,7 +1946,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>15000</v>
@@ -1135,7 +1954,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>7500</v>
@@ -1143,7 +1962,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -1151,7 +1970,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>20000</v>
@@ -1198,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1209,7 +2028,7 @@
         <v>12.5</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1220,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1231,7 +2050,7 @@
         <v>37.5</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1242,7 +2061,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1302,56 +2121,56 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="I2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1743,7 +2562,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1759,7 +2578,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -1840,11 +2659,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670DEE1-CE9B-417F-9985-01ED7EF35F61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1876,7 +2974,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1899,131 +2997,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737CA5AC-9B01-4570-91F5-A3CE72395CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA55879-0CB3-4DDD-B6F0-1DA4C083F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
   <si>
     <t>Town</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Scenaro_id</t>
-  </si>
-  <si>
-    <t>Scenario</t>
   </si>
   <si>
     <t>Product</t>
@@ -323,49 +320,31 @@
     <t>MaxSpouse</t>
   </si>
   <si>
-    <t>MaxChild</t>
-  </si>
-  <si>
-    <t>MaxParent</t>
-  </si>
-  <si>
-    <t>MaxExtended</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Minspouse</t>
-  </si>
-  <si>
-    <t>Maxspouse</t>
-  </si>
-  <si>
-    <t>Maxsel</t>
-  </si>
-  <si>
-    <t>Minsel</t>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Salary_frequency</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>BLACKAFRICAN</t>
+  </si>
+  <si>
+    <t>0830678899</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -516,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -571,17 +550,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -686,22 +654,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,16 +688,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -746,42 +710,7 @@
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{501A4514-B1BB-400C-AFA1-8FE92D854DF2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1008,7 +937,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1043,9 +972,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1068,6 +999,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1075,15 +1015,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1143,19 +1074,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J9" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8ECCF095-A47A-4446-88DE-C20C9EA98F17}" name="Scenario" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I9" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+  <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{7C56597E-D0E3-4A56-AB5D-05FE23C6E903}" name="Action" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A6197CED-E60A-4FA0-B975-C7AAB97218D2}" name="Functions" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{CD1BEAF3-C27B-4209-B9B1-E5180FA9BCCB}" name="Scenario detail" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{75B480A5-EDCD-4306-BA1C-18ECE9AAAA09}" name="Expecteced Result " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B7BB90DE-DDCC-4FBC-8023-957CDA7ABAC9}" name="Comment" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{38E0EF8D-3901-4056-AA3F-B5BA1F059947}" name="Test Result" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{20682D0F-D730-43CC-A849-D092705CEA7C}" name="Test__Date" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A6197CED-E60A-4FA0-B975-C7AAB97218D2}" name="Functions" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{CD1BEAF3-C27B-4209-B9B1-E5180FA9BCCB}" name="Scenario detail" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{75B480A5-EDCD-4306-BA1C-18ECE9AAAA09}" name="Expecteced Result " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B7BB90DE-DDCC-4FBC-8023-957CDA7ABAC9}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{38E0EF8D-3901-4056-AA3F-B5BA1F059947}" name="Test Result" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{20682D0F-D730-43CC-A849-D092705CEA7C}" name="Test__Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1458,123 +1388,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="Q1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>10000</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="36">
+        <v>35919</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{3A891493-FF5F-4607-B4EA-6D261917ED0A}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2120,26 +2081,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -2672,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2691,241 +2652,214 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="27">
+    </row>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A3" s="24">
         <v>1000</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
         <v>1000</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="B5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="D5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
         <v>1000</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="B6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="D6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="24">
         <v>1000</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="B7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="D7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A8" s="24">
         <v>1000</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="B8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="D8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="A9" s="24">
         <v>1000</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="B9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="D9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA55879-0CB3-4DDD-B6F0-1DA4C083F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4A225-B4D8-49D1-80AC-2A9ADB120335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
   <si>
     <t>Town</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Maximum Validation for Extended</t>
   </si>
   <si>
-    <t>Maximum Validation for self</t>
-  </si>
-  <si>
     <t>Minimum Validation for self</t>
   </si>
   <si>
@@ -345,6 +342,12 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>MaxChild</t>
+  </si>
+  <si>
+    <t>MinChild</t>
   </si>
 </sst>
 </file>
@@ -1459,13 +1462,13 @@
         <v>14</v>
       </c>
       <c r="Q1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="S1" s="35" t="s">
         <v>87</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>88</v>
       </c>
       <c r="T1" s="35" t="s">
         <v>38</v>
@@ -1497,22 +1500,22 @@
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>22</v>
@@ -1521,13 +1524,13 @@
         <v>10000</v>
       </c>
       <c r="Q2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>94</v>
       </c>
       <c r="T2" s="36">
         <v>35919</v>
@@ -2636,7 +2639,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2663,7 +2666,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>66</v>
@@ -2701,7 +2704,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>76</v>
@@ -2725,7 +2728,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>77</v>
@@ -2746,7 +2749,7 @@
         <v>75</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>78</v>
@@ -2767,7 +2770,7 @@
         <v>75</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>79</v>
@@ -2788,10 +2791,10 @@
         <v>75</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -2809,10 +2812,10 @@
         <v>75</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -2830,10 +2833,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -2851,10 +2854,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4A225-B4D8-49D1-80AC-2A9ADB120335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA52EA-7224-4DFE-BF07-119D4EB2412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="96">
   <si>
     <t>Town</t>
   </si>
@@ -254,12 +254,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Test Result</t>
-  </si>
-  <si>
-    <t>Test__Date</t>
   </si>
   <si>
     <t>Test Passed</t>
@@ -290,9 +284,6 @@
     <t>Validations</t>
   </si>
   <si>
-    <t>Maximum Validation for spouse</t>
-  </si>
-  <si>
     <t>Maximum Validation for Child</t>
   </si>
   <si>
@@ -302,21 +293,6 @@
     <t>Maximum Validation for Extended</t>
   </si>
   <si>
-    <t>Minimum Validation for self</t>
-  </si>
-  <si>
-    <t>Minimum Validation for spouse</t>
-  </si>
-  <si>
-    <t>Maximum Validation for spouser</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>MaxSpouse</t>
-  </si>
-  <si>
     <t>Permanent</t>
   </si>
   <si>
@@ -344,10 +320,34 @@
     <t>Male</t>
   </si>
   <si>
-    <t>MaxChild</t>
-  </si>
-  <si>
-    <t>MinChild</t>
+    <t>Maximum and Minimum age  Validation for spouse</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Test_Results</t>
+  </si>
+  <si>
+    <t>Test_Date</t>
+  </si>
+  <si>
+    <t>Maximum and Minimum age  Validation for Main Life</t>
+  </si>
+  <si>
+    <t>MaxMinAgeMainLife</t>
+  </si>
+  <si>
+    <t>MaxMinAgeSpouse</t>
+  </si>
+  <si>
+    <t>MaxMinAgeChild</t>
+  </si>
+  <si>
+    <t>MaxMinAgeParent</t>
+  </si>
+  <si>
+    <t>MaxMinAgeExtended</t>
   </si>
 </sst>
 </file>
@@ -1077,18 +1077,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I9" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I9" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I10" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{7C56597E-D0E3-4A56-AB5D-05FE23C6E903}" name="Action" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A6197CED-E60A-4FA0-B975-C7AAB97218D2}" name="Functions" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A6197CED-E60A-4FA0-B975-C7AAB97218D2}" name="Function" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{CD1BEAF3-C27B-4209-B9B1-E5180FA9BCCB}" name="Scenario detail" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{75B480A5-EDCD-4306-BA1C-18ECE9AAAA09}" name="Expecteced Result " dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{B7BB90DE-DDCC-4FBC-8023-957CDA7ABAC9}" name="Comment" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{38E0EF8D-3901-4056-AA3F-B5BA1F059947}" name="Test Result" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{20682D0F-D730-43CC-A849-D092705CEA7C}" name="Test__Date" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{38E0EF8D-3901-4056-AA3F-B5BA1F059947}" name="Test_Results" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{20682D0F-D730-43CC-A849-D092705CEA7C}" name="Test_Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1462,13 +1462,13 @@
         <v>14</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="T1" s="35" t="s">
         <v>38</v>
@@ -1500,22 +1500,22 @@
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>22</v>
@@ -1524,13 +1524,13 @@
         <v>10000</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="T2" s="36">
         <v>35919</v>
@@ -2636,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2647,11 +2647,11 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
     <col min="5" max="6" width="15.6328125" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2666,7 +2666,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>66</v>
@@ -2678,81 +2678,84 @@
         <v>68</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.35">
       <c r="A2" s="24">
         <v>1000</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
       <c r="I2" s="29"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
         <v>1000</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="30"/>
+        <v>86</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.35">
       <c r="A4" s="24">
         <v>1000</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -2764,16 +2767,16 @@
         <v>1000</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>79</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -2785,84 +2788,65 @@
         <v>1000</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="2"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>80</v>
-      </c>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="2"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.35">
-      <c r="A8" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>81</v>
-      </c>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="2"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.35">
-      <c r="A9" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA52EA-7224-4DFE-BF07-119D4EB2412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E080BD2F-5C0A-4B62-86D6-30D14597185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
   <si>
     <t>Town</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>MaxMinAgeExtended</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>03/03/2022 19:41:35</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -582,30 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -615,7 +597,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -691,14 +673,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,8 +1051,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I10" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I6" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
@@ -1461,16 +1435,16 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1523,16 +1497,16 @@
       <c r="P2" s="2">
         <v>10000</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="32">
         <v>35919</v>
       </c>
     </row>
@@ -2084,26 +2058,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -2636,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2711,8 +2685,12 @@
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="H2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>97</v>
+      </c>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
@@ -2803,50 +2781,6 @@
       <c r="G6" s="28"/>
       <c r="H6" s="2"/>
       <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E080BD2F-5C0A-4B62-86D6-30D14597185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D46119-C45C-4123-838D-72D16E5C8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>Town</t>
   </si>
@@ -350,10 +350,7 @@
     <t>MaxMinAgeExtended</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>03/03/2022 19:41:35</t>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -453,14 +450,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -597,7 +594,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -669,17 +666,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -689,7 +694,19 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -700,12 +717,22 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -718,8 +745,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -740,7 +765,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -753,8 +778,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1435,16 +1458,16 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1497,16 +1520,16 @@
       <c r="P2" s="2">
         <v>10000</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="32">
+      <c r="T2" s="30">
         <v>35919</v>
       </c>
     </row>
@@ -2058,26 +2081,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -2612,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2683,17 +2706,24 @@
       <c r="E2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="36">
+        <f>COUNTIF(Table2[Test_Results],"Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
+        <f>COUNTIF(Table2[Test_Results],"Failed")</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="36">
+        <f>SUM(K2:L2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
@@ -2711,10 +2741,12 @@
       <c r="E3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2735,10 +2767,12 @@
       <c r="E4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="G4" s="28"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
@@ -2756,10 +2790,12 @@
       <c r="E5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="G5" s="28"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
@@ -2777,13 +2813,15 @@
       <c r="E6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="G6" s="28"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="30"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="32"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D46119-C45C-4123-838D-72D16E5C8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF09179-4199-4A30-9546-AE7BACEED521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
   <si>
     <t>Town</t>
   </si>
@@ -351,6 +351,24 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>04/03/2022 08:28:53</t>
+  </si>
+  <si>
+    <t>04/03/2022 08:29:22</t>
+  </si>
+  <si>
+    <t>04/03/2022 08:29:42</t>
+  </si>
+  <si>
+    <t>04/03/2022 08:36:54</t>
+  </si>
+  <si>
+    <t>04/03/2022 08:38:33</t>
   </si>
 </sst>
 </file>
@@ -677,14 +695,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2081,26 +2099,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -2632,11 +2650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2652,7 +2670,7 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row spans="1:13" x14ac:dyDescent="0.35" outlineLevel="0" r="1">
       <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.35">
+    <row spans="1:13" ht="48" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
       <c r="A2" s="24">
         <v>1000</v>
       </c>
@@ -2710,22 +2728,30 @@
         <v>96</v>
       </c>
       <c r="G2" s="27"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32"/>
-      <c r="K2" s="36">
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I2" s="32" t="inlineStr">
+        <is>
+          <t>04/03/2022 09:13:23</t>
+        </is>
+      </c>
+      <c r="K2" s="34">
         <f>COUNTIF(Table2[Test_Results],"Passed")</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="36">
+        <v>5</v>
+      </c>
+      <c r="L2" s="34">
         <f>COUNTIF(Table2[Test_Results],"Failed")</f>
         <v>0</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="34">
         <f>SUM(K2:L2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row spans="1:13" ht="36" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
       <c r="A3" s="24">
         <v>1000</v>
       </c>
@@ -2745,13 +2771,21 @@
         <v>96</v>
       </c>
       <c r="G3" s="27"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I3" s="32" t="inlineStr">
+        <is>
+          <t>04/03/2022 09:13:52</t>
+        </is>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
       <c r="A4" s="24">
         <v>1000</v>
       </c>
@@ -2771,10 +2805,18 @@
         <v>96</v>
       </c>
       <c r="G4" s="28"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I4" s="32" t="inlineStr">
+        <is>
+          <t>04/03/2022 09:14:03</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
       <c r="A5" s="24">
         <v>1000</v>
       </c>
@@ -2794,10 +2836,18 @@
         <v>96</v>
       </c>
       <c r="G5" s="28"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.35">
+      <c r="H5" s="31" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I5" s="32" t="inlineStr">
+        <is>
+          <t>04/03/2022 09:14:20</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
       <c r="A6" s="24">
         <v>1000</v>
       </c>
@@ -2817,8 +2867,16 @@
         <v>96</v>
       </c>
       <c r="G6" s="28"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I6" s="32" t="inlineStr">
+        <is>
+          <t>04/03/2022 09:14:33</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF09179-4199-4A30-9546-AE7BACEED521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD5C1B-D753-4409-A6DB-2C5836D6F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="9" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,13 @@
     <sheet name="Cover_Coordinates" sheetId="13" r:id="rId4"/>
     <sheet name="PLA" sheetId="5" r:id="rId5"/>
     <sheet name="Affordability_Check" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId7"/>
-    <sheet name="Scenarios" sheetId="17" r:id="rId8"/>
-    <sheet name="Extended" sheetId="7" r:id="rId9"/>
-    <sheet name="Parent" sheetId="11" r:id="rId10"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId11"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId12"/>
-    <sheet name="Child" sheetId="12" r:id="rId13"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId14"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId7"/>
+    <sheet name="Extended" sheetId="7" r:id="rId8"/>
+    <sheet name="Parent" sheetId="11" r:id="rId9"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId10"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId11"/>
+    <sheet name="Child" sheetId="12" r:id="rId12"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -356,19 +355,19 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>04/03/2022 08:28:53</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:29:22</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:29:42</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:36:54</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:38:33</t>
+    <t>04/03/2022 11:52:11</t>
+  </si>
+  <si>
+    <t>04/03/2022 11:52:39</t>
+  </si>
+  <si>
+    <t>04/03/2022 11:52:51</t>
+  </si>
+  <si>
+    <t>04/03/2022 11:53:07</t>
+  </si>
+  <si>
+    <t>04/03/2022 11:53:21</t>
   </si>
 </sst>
 </file>
@@ -1560,71 +1559,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1683,7 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1749,7 +1687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1822,7 +1760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2444,6 +2382,8 @@
     <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2638,23 +2578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670DEE1-CE9B-417F-9985-01ED7EF35F61}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2735,12 +2663,12 @@
       </c>
       <c r="I2" s="32" t="inlineStr">
         <is>
-          <t>04/03/2022 09:13:23</t>
+          <t>08/03/2022 11:45:29</t>
         </is>
       </c>
       <c r="K2" s="34">
         <f>COUNTIF(Table2[Test_Results],"Passed")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2" s="34">
         <f>COUNTIF(Table2[Test_Results],"Failed")</f>
@@ -2748,7 +2676,7 @@
       </c>
       <c r="M2" s="34">
         <f>SUM(K2:L2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row spans="1:13" ht="36" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
@@ -2773,12 +2701,12 @@
       <c r="G3" s="27"/>
       <c r="H3" s="33" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="I3" s="32" t="inlineStr">
         <is>
-          <t>04/03/2022 09:13:52</t>
+          <t>07/03/2022 21:02:21</t>
         </is>
       </c>
       <c r="K3" s="2"/>
@@ -2807,12 +2735,12 @@
       <c r="G4" s="28"/>
       <c r="H4" s="33" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="I4" s="32" t="inlineStr">
         <is>
-          <t>04/03/2022 09:14:03</t>
+          <t>07/03/2022 21:02:32</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2766,12 @@
       <c r="G5" s="28"/>
       <c r="H5" s="31" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="I5" s="32" t="inlineStr">
         <is>
-          <t>04/03/2022 09:14:20</t>
+          <t>07/03/2022 21:02:50</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2797,12 @@
       <c r="G6" s="28"/>
       <c r="H6" s="33" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="I6" s="32" t="inlineStr">
         <is>
-          <t>04/03/2022 09:14:33</t>
+          <t>07/03/2022 21:03:02</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2816,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2947,8 +2875,69 @@
       <c r="F2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -2663,7 +2663,7 @@
       </c>
       <c r="I2" s="32" t="inlineStr">
         <is>
-          <t>08/03/2022 11:45:29</t>
+          <t>08/03/2022 15:23:07</t>
         </is>
       </c>
       <c r="K2" s="34">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="I3" s="32" t="inlineStr">
         <is>
-          <t>07/03/2022 21:02:21</t>
+          <t>08/03/2022 14:45:33</t>
         </is>
       </c>
       <c r="K3" s="2"/>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="I4" s="32" t="inlineStr">
         <is>
-          <t>07/03/2022 21:02:32</t>
+          <t>08/03/2022 14:45:44</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="I5" s="32" t="inlineStr">
         <is>
-          <t>07/03/2022 21:02:50</t>
+          <t>08/03/2022 14:46:02</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="I6" s="32" t="inlineStr">
         <is>
-          <t>07/03/2022 21:03:02</t>
+          <t>08/03/2022 14:46:14</t>
         </is>
       </c>
     </row>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -2663,7 +2663,7 @@
       </c>
       <c r="I2" s="32" t="inlineStr">
         <is>
-          <t>08/03/2022 15:23:07</t>
+          <t>08/03/2022 18:50:31</t>
         </is>
       </c>
       <c r="K2" s="34">

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD5C1B-D753-4409-A6DB-2C5836D6F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE000BA-33CB-4E1A-9D0B-2DE0A8A7892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="9" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="8" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="CoverAmount" sheetId="16" r:id="rId2"/>
+    <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
+    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId2"/>
     <sheet name="CoverDropDown" sheetId="14" r:id="rId3"/>
     <sheet name="Cover_Coordinates" sheetId="13" r:id="rId4"/>
     <sheet name="PLA" sheetId="5" r:id="rId5"/>
     <sheet name="Affordability_Check" sheetId="8" r:id="rId6"/>
     <sheet name="Scenarios" sheetId="17" r:id="rId7"/>
     <sheet name="Extended" sheetId="7" r:id="rId8"/>
-    <sheet name="Parent" sheetId="11" r:id="rId9"/>
+    <sheet name="Parents" sheetId="11" r:id="rId9"/>
     <sheet name="Spouse" sheetId="6" r:id="rId10"/>
     <sheet name="Beneficiaries" sheetId="9" r:id="rId11"/>
-    <sheet name="Child" sheetId="12" r:id="rId12"/>
+    <sheet name="Children" sheetId="12" r:id="rId12"/>
     <sheet name="PolicyPayer" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
   <si>
     <t>Town</t>
   </si>
@@ -181,18 +181,6 @@
   </si>
   <si>
     <t>Account Number</t>
-  </si>
-  <si>
-    <t>PLA1</t>
-  </si>
-  <si>
-    <t>Parent1</t>
-  </si>
-  <si>
-    <t>Child1</t>
-  </si>
-  <si>
-    <t>Child2</t>
   </si>
   <si>
     <t>LindoKuhle</t>
@@ -349,25 +337,13 @@
     <t>MaxMinAgeExtended</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>04/03/2022 11:52:11</t>
-  </si>
-  <si>
-    <t>04/03/2022 11:52:39</t>
-  </si>
-  <si>
-    <t>04/03/2022 11:52:51</t>
-  </si>
-  <si>
-    <t>04/03/2022 11:53:07</t>
-  </si>
-  <si>
-    <t>04/03/2022 11:53:21</t>
+    <t>Scenario_id</t>
+  </si>
+  <si>
+    <t>scenario_id</t>
+  </si>
+  <si>
+    <t>0789654566</t>
   </si>
 </sst>
 </file>
@@ -467,14 +443,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -602,6 +578,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -611,7 +611,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -683,20 +683,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,19 +711,7 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -734,22 +722,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -762,6 +740,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -782,7 +762,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -795,6 +775,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1091,8 +1073,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I6" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I10" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
@@ -1404,435 +1386,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="30">
-        <v>35919</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7">
-        <v>36202</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10">
-        <v>62429363625</v>
-      </c>
-      <c r="G2" s="2">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884330D-945B-460E-9013-EA13CCDB12FF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1847,15 +1400,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>60000</v>
@@ -1863,7 +1416,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>15000</v>
@@ -1871,7 +1424,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>7500</v>
@@ -1879,7 +1432,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -1887,7 +1440,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>20000</v>
@@ -1916,6 +1469,459 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9">
+        <v>36202</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9">
+        <v>36203</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>830678899</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10">
+        <v>62429363625</v>
+      </c>
+      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="36">
+        <v>35919</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655D703-28F5-487A-8779-E3AC589F989A}">
   <dimension ref="A1:C9"/>
@@ -1934,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1945,7 +1951,7 @@
         <v>12.5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1956,7 +1962,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1967,7 +1973,7 @@
         <v>37.5</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1978,7 +1984,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2037,57 +2043,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2369,7 +2375,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2382,8 +2388,6 @@
     <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2428,8 +2432,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2497,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -2578,11 +2582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2598,216 +2602,201 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:13" x14ac:dyDescent="0.35" outlineLevel="0" r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="H1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="L1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="M1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row spans="1:13" ht="48" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+    </row>
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.35">
       <c r="A2" s="24">
         <v>1000</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F2" s="27"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I2" s="32" t="inlineStr">
-        <is>
-          <t>08/03/2022 18:50:31</t>
-        </is>
-      </c>
-      <c r="K2" s="34">
-        <f>COUNTIF(Table2[Test_Results],"Passed")</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="34">
-        <f>COUNTIF(Table2[Test_Results],"Failed")</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="34">
-        <f>SUM(K2:L2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:13" ht="36" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
         <v>1000</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>96</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I3" s="32" t="inlineStr">
-        <is>
-          <t>08/03/2022 14:45:33</t>
-        </is>
-      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.35">
       <c r="A4" s="24">
         <v>1000</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>96</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F4" s="28"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I4" s="32" t="inlineStr">
-        <is>
-          <t>08/03/2022 14:45:44</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="H4" s="2"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <v>1000</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>96</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="31" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I5" s="32" t="inlineStr">
-        <is>
-          <t>08/03/2022 14:46:02</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="H5" s="2"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.35">
       <c r="A6" s="24">
         <v>1000</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>96</v>
-      </c>
+      <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I6" s="32" t="inlineStr">
-        <is>
-          <t>08/03/2022 14:46:14</t>
-        </is>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2821,7 +2810,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2853,12 +2842,12 @@
         <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -2875,8 +2864,8 @@
       <c r="F2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
+      <c r="G2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2888,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2921,8 +2910,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE000BA-33CB-4E1A-9D0B-2DE0A8A7892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA78DD0-F471-4EF0-A6C6-B9943B91629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="8" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="32280" yWindow="2295" windowWidth="20880" windowHeight="11055" firstSheet="8" activeTab="14" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Beneficiaries" sheetId="9" r:id="rId11"/>
     <sheet name="Children" sheetId="12" r:id="rId12"/>
     <sheet name="PolicyPayer" sheetId="10" r:id="rId13"/>
+    <sheet name="BankDetails" sheetId="19" r:id="rId14"/>
+    <sheet name="PhysicalAddress" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
   <si>
     <t>Town</t>
   </si>
@@ -169,12 +171,6 @@
   </si>
   <si>
     <t>0789654565</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Truly good</t>
   </si>
   <si>
     <t>Salary_PayDate</t>
@@ -271,15 +267,6 @@
     <t>Validations</t>
   </si>
   <si>
-    <t>Maximum Validation for Child</t>
-  </si>
-  <si>
-    <t>Maximum Validation for Parent</t>
-  </si>
-  <si>
-    <t>Maximum Validation for Extended</t>
-  </si>
-  <si>
     <t>Permanent</t>
   </si>
   <si>
@@ -307,9 +294,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Maximum and Minimum age  Validation for spouse</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -319,24 +303,6 @@
     <t>Test_Date</t>
   </si>
   <si>
-    <t>Maximum and Minimum age  Validation for Main Life</t>
-  </si>
-  <si>
-    <t>MaxMinAgeMainLife</t>
-  </si>
-  <si>
-    <t>MaxMinAgeSpouse</t>
-  </si>
-  <si>
-    <t>MaxMinAgeChild</t>
-  </si>
-  <si>
-    <t>MaxMinAgeParent</t>
-  </si>
-  <si>
-    <t>MaxMinAgeExtended</t>
-  </si>
-  <si>
     <t>Scenario_id</t>
   </si>
   <si>
@@ -344,13 +310,76 @@
   </si>
   <si>
     <t>0789654566</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Account_Type</t>
+  </si>
+  <si>
+    <t>Account_Number</t>
+  </si>
+  <si>
+    <t>Salary_Date</t>
+  </si>
+  <si>
+    <t>Debit_Order_Day</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Call_Ref_Number</t>
+  </si>
+  <si>
+    <t>Card_Number</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>FNB</t>
+  </si>
+  <si>
+    <t>62429363625</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Majafela</t>
+  </si>
+  <si>
+    <t>Maseru</t>
+  </si>
+  <si>
+    <t>000123</t>
+  </si>
+  <si>
+    <t>Test for 1 main with 2 children</t>
+  </si>
+  <si>
+    <t>MainLife</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,12 +400,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -630,18 +653,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,53 +672,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1073,8 +1096,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I10" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B1:J10" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
@@ -1390,7 +1413,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,15 +1423,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>60000</v>
@@ -1416,7 +1439,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>15000</v>
@@ -1424,7 +1447,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>7500</v>
@@ -1432,7 +1455,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -1440,7 +1463,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>20000</v>
@@ -1471,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,11 +1506,10 @@
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1501,13 +1523,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1520,10 +1539,7 @@
       <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1534,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,14 +1561,13 @@
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
     <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1569,11 +1584,8 @@
       <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1592,12 +1604,9 @@
       <c r="F2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H7" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,7 +1618,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1663,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -1673,11 +1682,11 @@
         <v>36203</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1687,7 +1696,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1697,12 +1706,12 @@
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1720,10 +1729,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1745,7 +1754,7 @@
       <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="2">
         <v>62429363625</v>
       </c>
       <c r="H2" s="2">
@@ -1756,16 +1765,143 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>2191</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1784,7 +1920,7 @@
     <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1804,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1836,20 +1972,23 @@
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="35" t="s">
+      <c r="R1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1878,22 +2017,22 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>22</v>
@@ -1901,17 +2040,20 @@
       <c r="Q2" s="2">
         <v>10000</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="36">
+      <c r="R2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="35">
         <v>35919</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1951,7 +2093,7 @@
         <v>12.5</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1962,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1973,7 +2115,7 @@
         <v>37.5</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1984,7 +2126,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2044,56 +2186,56 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>49</v>
+      <c r="A2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2118,7 +2260,7 @@
       <c r="G3" s="3">
         <v>5000</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -2150,7 +2292,7 @@
       <c r="G4" s="3">
         <v>7500</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>14.2857</v>
       </c>
       <c r="I4" s="3">
@@ -2182,7 +2324,7 @@
       <c r="G5" s="3">
         <v>10000</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>28.571400000000001</v>
       </c>
       <c r="I5" s="3">
@@ -2214,7 +2356,7 @@
       <c r="G6" s="3">
         <v>15000</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>42.857100000000003</v>
       </c>
       <c r="I6" s="3">
@@ -2246,7 +2388,7 @@
       <c r="G7" s="3">
         <v>20000</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>57.142899999999997</v>
       </c>
       <c r="I7" s="3">
@@ -2274,7 +2416,7 @@
       <c r="G8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>71.428600000000003</v>
       </c>
       <c r="I8" s="3">
@@ -2302,7 +2444,7 @@
       <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>85.714299999999994</v>
       </c>
       <c r="I9" s="3"/>
@@ -2326,7 +2468,7 @@
       <c r="G10" s="3">
         <v>50000</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>100</v>
       </c>
       <c r="I10" s="3"/>
@@ -2355,7 +2497,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2486,7 +2628,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2501,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -2583,220 +2725,186 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="I1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="M1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.35">
-      <c r="A2" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="A3" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="K3" s="2"/>
+      <c r="E2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.35">
-      <c r="A4" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="23"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2841,8 +2949,8 @@
       <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>46</v>
+      <c r="G1" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2865,7 +2973,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +2985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA78DD0-F471-4EF0-A6C6-B9943B91629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9E4CC-DB59-49AF-8FB1-0BD1420ED207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="2295" windowWidth="20880" windowHeight="11055" firstSheet="8" activeTab="14" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="10" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
   <si>
     <t>Town</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Safrican</t>
   </si>
   <si>
-    <t>Nike</t>
-  </si>
-  <si>
     <t>Net_Salary</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Debt</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
     <t>9910071643085</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
   </si>
   <si>
     <t>Extended_RelationshipType</t>
-  </si>
-  <si>
-    <t>Cousin</t>
   </si>
   <si>
     <t>Cover Amount</t>
@@ -264,9 +255,6 @@
     <t>New Business</t>
   </si>
   <si>
-    <t>Validations</t>
-  </si>
-  <si>
     <t>Permanent</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>BLACKAFRICAN</t>
   </si>
   <si>
-    <t>0830678899</t>
-  </si>
-  <si>
     <t>ZA</t>
   </si>
   <si>
@@ -345,9 +330,6 @@
     <t>Card_Number</t>
   </si>
   <si>
-    <t>00000012</t>
-  </si>
-  <si>
     <t>FNB</t>
   </si>
   <si>
@@ -363,23 +345,107 @@
     <t>Maseru</t>
   </si>
   <si>
-    <t>000123</t>
-  </si>
-  <si>
     <t>Test for 1 main with 2 children</t>
   </si>
   <si>
-    <t>MainLife</t>
-  </si>
-  <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>09871654</t>
+  </si>
+  <si>
+    <t>uncle</t>
+  </si>
+  <si>
+    <t>1009249062084</t>
+  </si>
+  <si>
+    <t>0679887645</t>
+  </si>
+  <si>
+    <t>0679977657</t>
+  </si>
+  <si>
+    <t>Zenokuhle</t>
+  </si>
+  <si>
+    <t>Motha</t>
+  </si>
+  <si>
+    <t>luthendo</t>
+  </si>
+  <si>
+    <t>7407121282081</t>
+  </si>
+  <si>
+    <t>5407127945089</t>
+  </si>
+  <si>
+    <t>Maline</t>
+  </si>
+  <si>
+    <t>motha</t>
+  </si>
+  <si>
+    <t>Zondy</t>
+  </si>
+  <si>
+    <t>7504301512087</t>
+  </si>
+  <si>
+    <t>0729654566</t>
+  </si>
+  <si>
+    <t>0829654565</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>067678899</t>
+  </si>
+  <si>
+    <t>80976543</t>
+  </si>
+  <si>
+    <t>Create a client product 1000</t>
+  </si>
+  <si>
+    <t>08241234432</t>
+  </si>
+  <si>
+    <t>8307065327083</t>
+  </si>
+  <si>
+    <t>Mosa</t>
+  </si>
+  <si>
+    <t>0799654566</t>
+  </si>
+  <si>
+    <t>0679977656</t>
+  </si>
+  <si>
+    <t>Themba</t>
+  </si>
+  <si>
+    <t>8307066991085</t>
+  </si>
+  <si>
+    <t>african rain</t>
+  </si>
+  <si>
+    <t>Mpholoba</t>
+  </si>
+  <si>
+    <t>Mguni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +544,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -517,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -625,6 +698,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -634,7 +718,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -646,14 +730,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,9 +753,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,9 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -718,21 +789,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{501A4514-B1BB-400C-AFA1-8FE92D854DF2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9966FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1096,20 +1215,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J10" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B1:J10" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7C56597E-D0E3-4A56-AB5D-05FE23C6E903}" name="Action" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A6197CED-E60A-4FA0-B975-C7AAB97218D2}" name="Function" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{CD1BEAF3-C27B-4209-B9B1-E5180FA9BCCB}" name="Scenario detail" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{75B480A5-EDCD-4306-BA1C-18ECE9AAAA09}" name="Expecteced Result " dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B7BB90DE-DDCC-4FBC-8023-957CDA7ABAC9}" name="Comment" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{38E0EF8D-3901-4056-AA3F-B5BA1F059947}" name="Test_Results" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{20682D0F-D730-43CC-A849-D092705CEA7C}" name="Test_Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{7C56597E-D0E3-4A56-AB5D-05FE23C6E903}" name="Action" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A6197CED-E60A-4FA0-B975-C7AAB97218D2}" name="Function" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{CD1BEAF3-C27B-4209-B9B1-E5180FA9BCCB}" name="Scenario detail" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{75B480A5-EDCD-4306-BA1C-18ECE9AAAA09}" name="Expecteced Result " dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B7BB90DE-DDCC-4FBC-8023-957CDA7ABAC9}" name="Comment" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{38E0EF8D-3901-4056-AA3F-B5BA1F059947}" name="Test_Results" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{20682D0F-D730-43CC-A849-D092705CEA7C}" name="Test_Date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0799F4A-4773-4BFA-9F0E-815E859951B8}" name="Table3" displayName="Table3" ref="A1:A10" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:A10" xr:uid="{C0799F4A-4773-4BFA-9F0E-815E859951B8}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{FD5868BF-1CC7-49A2-B6A8-2AD6161477A4}" name="Scenario_ID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1413,7 +1542,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,15 +1552,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>60000</v>
@@ -1439,7 +1568,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>15000</v>
@@ -1447,7 +1576,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>7500</v>
@@ -1455,7 +1584,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -1463,7 +1592,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>20000</v>
@@ -1494,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1505,7 +1634,159 @@
     <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1523,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1536,153 +1817,45 @@
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9">
-        <v>36203</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>82</v>
+      <c r="D3" s="33">
+        <v>7407121282081</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="33">
+        <v>7407121282081</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1696,11 +1869,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
@@ -1710,8 +1884,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>81</v>
+      <c r="A1" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1729,24 +1903,24 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>830678899</v>
@@ -1775,11 +1949,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
@@ -1788,42 +1963,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>15</v>
       </c>
     </row>
@@ -1836,59 +2011,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2191</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>100</v>
+      <c r="G2" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1898,141 +2076,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="R1" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>22</v>
@@ -2040,20 +2219,46 @@
       <c r="Q2" s="2">
         <v>10000</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="35">
-        <v>35919</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>94</v>
+      <c r="R2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8307068394080</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2093,7 +2298,7 @@
         <v>12.5</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2104,7 +2309,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2115,7 +2320,7 @@
         <v>37.5</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2126,7 +2331,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2185,57 +2390,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>47</v>
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2260,7 +2465,7 @@
       <c r="G3" s="3">
         <v>5000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -2292,7 +2497,7 @@
       <c r="G4" s="3">
         <v>7500</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="11">
         <v>14.2857</v>
       </c>
       <c r="I4" s="3">
@@ -2324,7 +2529,7 @@
       <c r="G5" s="3">
         <v>10000</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>28.571400000000001</v>
       </c>
       <c r="I5" s="3">
@@ -2356,7 +2561,7 @@
       <c r="G6" s="3">
         <v>15000</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>42.857100000000003</v>
       </c>
       <c r="I6" s="3">
@@ -2388,7 +2593,7 @@
       <c r="G7" s="3">
         <v>20000</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>57.142899999999997</v>
       </c>
       <c r="I7" s="3">
@@ -2416,7 +2621,7 @@
       <c r="G8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="11">
         <v>71.428600000000003</v>
       </c>
       <c r="I8" s="3">
@@ -2444,7 +2649,7 @@
       <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>85.714299999999994</v>
       </c>
       <c r="I9" s="3"/>
@@ -2468,7 +2673,7 @@
       <c r="G10" s="3">
         <v>50000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>100</v>
       </c>
       <c r="I10" s="3"/>
@@ -2497,7 +2702,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="11"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2517,7 +2722,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2611,7 +2816,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="2">
-        <v>10000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -2625,14 +2830,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
@@ -2642,52 +2848,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="C2" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2699,7 +2905,7 @@
         <v>4000</v>
       </c>
       <c r="G2" s="4">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="H2" s="4">
         <v>1200</v>
@@ -2708,13 +2914,51 @@
         <v>1000</v>
       </c>
       <c r="J2" s="4">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="K2" s="4">
         <v>5000</v>
       </c>
       <c r="L2" s="4">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>500</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>8000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -2728,11 +2972,12 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
@@ -2744,193 +2989,200 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="I1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="40">
         <v>1000</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="C2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="29"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="29"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="29"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="29"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="29"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="29"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="23"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2944,36 +3196,30 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
+      <c r="D2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2983,21 +3229,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -3011,13 +3257,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3027,17 +3270,32 @@
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
+      <c r="D2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA78DD0-F471-4EF0-A6C6-B9943B91629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF9D5F4-8F34-42C5-8770-F2548DDA0438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="2295" windowWidth="20880" windowHeight="11055" firstSheet="8" activeTab="14" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="10" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="PolicyPayer" sheetId="10" r:id="rId13"/>
     <sheet name="BankDetails" sheetId="19" r:id="rId14"/>
     <sheet name="PhysicalAddress" sheetId="20" r:id="rId15"/>
+    <sheet name="Product_Details" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>Town</t>
   </si>
@@ -128,9 +129,6 @@
     <t>Safrican</t>
   </si>
   <si>
-    <t>Nike</t>
-  </si>
-  <si>
     <t>Net_Salary</t>
   </si>
   <si>
@@ -183,9 +181,6 @@
   </si>
   <si>
     <t>Extended_RelationshipType</t>
-  </si>
-  <si>
-    <t>Cousin</t>
   </si>
   <si>
     <t>Cover Amount</t>
@@ -264,9 +259,6 @@
     <t>New Business</t>
   </si>
   <si>
-    <t>Validations</t>
-  </si>
-  <si>
     <t>Permanent</t>
   </si>
   <si>
@@ -345,9 +337,6 @@
     <t>Card_Number</t>
   </si>
   <si>
-    <t>00000012</t>
-  </si>
-  <si>
     <t>FNB</t>
   </si>
   <si>
@@ -357,22 +346,100 @@
     <t>Current</t>
   </si>
   <si>
-    <t>Majafela</t>
-  </si>
-  <si>
-    <t>Maseru</t>
-  </si>
-  <si>
-    <t>000123</t>
-  </si>
-  <si>
-    <t>Test for 1 main with 2 children</t>
-  </si>
-  <si>
-    <t>MainLife</t>
-  </si>
-  <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>Create a client</t>
+  </si>
+  <si>
+    <t>Kabelo</t>
+  </si>
+  <si>
+    <t>Motha</t>
+  </si>
+  <si>
+    <t>8307068394080</t>
+  </si>
+  <si>
+    <t>uncle</t>
+  </si>
+  <si>
+    <t>0789654665</t>
+  </si>
+  <si>
+    <t>Xulu</t>
+  </si>
+  <si>
+    <t>6711128666084</t>
+  </si>
+  <si>
+    <t>0729654565</t>
+  </si>
+  <si>
+    <t>7404056459081</t>
+  </si>
+  <si>
+    <t>Melusi</t>
+  </si>
+  <si>
+    <t>African rain</t>
+  </si>
+  <si>
+    <t>Add 4 Life assured</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>0824123432</t>
+  </si>
+  <si>
+    <t>1002153575084</t>
+  </si>
+  <si>
+    <t>1802153890080</t>
+  </si>
+  <si>
+    <t>0679587875</t>
+  </si>
+  <si>
+    <t>0820678899</t>
+  </si>
+  <si>
+    <t>Mel@gmail.com</t>
+  </si>
+  <si>
+    <t>27 Beacon Avenue</t>
+  </si>
+  <si>
+    <t>Sandton</t>
+  </si>
+  <si>
+    <t>Test for 1 mainlife ,1 spouse with 2 children,1  beneficiary, 1 parent,</t>
+  </si>
+  <si>
+    <t>10007408</t>
+  </si>
+  <si>
+    <t>09876566</t>
+  </si>
+  <si>
+    <t>Covered</t>
+  </si>
+  <si>
+    <t>Zimbezi</t>
+  </si>
+  <si>
+    <t>9909160332089</t>
+  </si>
+  <si>
+    <t>Escalations</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Wife</t>
   </si>
 </sst>
 </file>
@@ -517,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -601,30 +668,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -634,7 +677,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -648,12 +691,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -708,18 +745,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,8 +1132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B1:J10" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B1:J2" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
@@ -1413,7 +1449,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,50 +1458,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>20000</v>
       </c>
     </row>
@@ -1497,7 +1533,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,20 +1546,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1531,125 +1567,125 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="E1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7">
-        <v>36202</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1657,32 +1693,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9">
-        <v>36203</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1730,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1710,29 +1744,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="30" t="s">
         <v>41</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1746,13 +1780,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>830678899</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>62429363625</v>
@@ -1775,11 +1809,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
@@ -1788,42 +1823,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>15</v>
       </c>
     </row>
@@ -1836,60 +1871,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2191</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="G2" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,96 +1987,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>93</v>
+      <c r="R1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1999,40 +2090,40 @@
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>22</v>
@@ -2040,20 +2131,20 @@
       <c r="Q2" s="2">
         <v>10000</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="35">
+      <c r="R2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="7">
         <v>35919</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>94</v>
+      <c r="V2" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2160,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2081,8 +2172,8 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2092,8 +2183,8 @@
       <c r="B2" s="3">
         <v>12.5</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2103,8 +2194,8 @@
       <c r="B3" s="3">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2114,8 +2205,8 @@
       <c r="B4" s="3">
         <v>37.5</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2125,8 +2216,8 @@
       <c r="B5" s="3">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2171,7 +2262,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2185,57 +2276,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>47</v>
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2260,7 +2351,7 @@
       <c r="G3" s="3">
         <v>5000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -2292,7 +2383,7 @@
       <c r="G4" s="3">
         <v>7500</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>14.2857</v>
       </c>
       <c r="I4" s="3">
@@ -2324,7 +2415,7 @@
       <c r="G5" s="3">
         <v>10000</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>28.571400000000001</v>
       </c>
       <c r="I5" s="3">
@@ -2356,7 +2447,7 @@
       <c r="G6" s="3">
         <v>15000</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>42.857100000000003</v>
       </c>
       <c r="I6" s="3">
@@ -2388,7 +2479,7 @@
       <c r="G7" s="3">
         <v>20000</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>57.142899999999997</v>
       </c>
       <c r="I7" s="3">
@@ -2416,7 +2507,7 @@
       <c r="G8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>71.428600000000003</v>
       </c>
       <c r="I8" s="3">
@@ -2444,7 +2535,7 @@
       <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>85.714299999999994</v>
       </c>
       <c r="I9" s="3"/>
@@ -2468,7 +2559,7 @@
       <c r="G10" s="3">
         <v>50000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>100</v>
       </c>
       <c r="I10" s="3"/>
@@ -2497,7 +2588,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="11"/>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2514,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786073B4-85CC-4556-90E2-B38B107A54B7}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2530,61 +2621,68 @@
     <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
@@ -2595,8 +2693,8 @@
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2">
-        <v>830678899</v>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>20</v>
@@ -2611,8 +2709,12 @@
         <v>22</v>
       </c>
       <c r="M2" s="2">
-        <v>10000</v>
-      </c>
+        <v>40000</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2628,11 +2730,12 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
@@ -2642,52 +2745,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="4">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2708,7 +2811,7 @@
         <v>1000</v>
       </c>
       <c r="J2" s="4">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="K2" s="4">
         <v>5000</v>
@@ -2725,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2737,171 +2840,83 @@
     <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
     <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="7" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.54296875" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="23"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
+      <c r="D2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2915,65 +2930,58 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
+        <v>98</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2983,41 +2991,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3025,16 +3029,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>102</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF9D5F4-8F34-42C5-8770-F2548DDA0438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD181707-F235-418D-A232-3A52D791EE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="10" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>Town</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Account Number</t>
-  </si>
-  <si>
-    <t>LindoKuhle</t>
   </si>
   <si>
     <t>Extended_RelationshipType</t>
@@ -394,12 +391,6 @@
     <t>0824123432</t>
   </si>
   <si>
-    <t>1002153575084</t>
-  </si>
-  <si>
-    <t>1802153890080</t>
-  </si>
-  <si>
     <t>0679587875</t>
   </si>
   <si>
@@ -418,9 +409,6 @@
     <t>Test for 1 mainlife ,1 spouse with 2 children,1  beneficiary, 1 parent,</t>
   </si>
   <si>
-    <t>10007408</t>
-  </si>
-  <si>
     <t>09876566</t>
   </si>
   <si>
@@ -440,6 +428,36 @@
   </si>
   <si>
     <t>Wife</t>
+  </si>
+  <si>
+    <t>7105297800088</t>
+  </si>
+  <si>
+    <t>Motheo</t>
+  </si>
+  <si>
+    <t>Fifi</t>
+  </si>
+  <si>
+    <t>Amogelang</t>
+  </si>
+  <si>
+    <t>Bokang</t>
+  </si>
+  <si>
+    <t>0005296722084</t>
+  </si>
+  <si>
+    <t>0005296114084</t>
+  </si>
+  <si>
+    <t>10017408</t>
+  </si>
+  <si>
+    <t>6105298570087</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -689,7 +707,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -756,6 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1458,16 +1476,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>60000</v>
@@ -1475,7 +1493,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2">
         <v>15000</v>
@@ -1483,7 +1501,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
         <v>7500</v>
@@ -1491,7 +1509,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>10000</v>
@@ -1499,7 +1517,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2">
         <v>20000</v>
@@ -1546,19 +1564,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1567,16 +1585,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>112</v>
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1604,23 +1622,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>124</v>
+      <c r="F1" s="29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1631,16 +1649,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>125</v>
+      <c r="E2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1657,7 +1675,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1669,19 +1687,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1690,15 +1708,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1707,16 +1725,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>79</v>
+        <v>128</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1744,28 +1762,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1780,13 +1798,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>830678899</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2">
         <v>62429363625</v>
@@ -1823,23 +1841,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1847,13 +1865,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>25</v>
@@ -1883,26 +1901,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1913,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1925,7 +1943,7 @@
         <v>2191</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1949,19 +1967,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -1985,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2012,144 +2030,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="T1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="U1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="5">
+        <v>26082</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="L3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" s="7">
-        <v>35919</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>118</v>
+      <c r="U3" s="5">
+        <v>26082</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{B13CD0C0-9D1F-4B1E-A104-0C1F13197844}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2173,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2184,7 +2271,7 @@
         <v>12.5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2195,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2206,7 +2293,7 @@
         <v>37.5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2217,7 +2304,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2277,56 +2364,56 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="35"/>
       <c r="I1" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2351,7 +2438,7 @@
       <c r="G3" s="3">
         <v>5000</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -2383,7 +2470,7 @@
       <c r="G4" s="3">
         <v>7500</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>14.2857</v>
       </c>
       <c r="I4" s="3">
@@ -2415,7 +2502,7 @@
       <c r="G5" s="3">
         <v>10000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>28.571400000000001</v>
       </c>
       <c r="I5" s="3">
@@ -2447,7 +2534,7 @@
       <c r="G6" s="3">
         <v>15000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>42.857100000000003</v>
       </c>
       <c r="I6" s="3">
@@ -2479,7 +2566,7 @@
       <c r="G7" s="3">
         <v>20000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>57.142899999999997</v>
       </c>
       <c r="I7" s="3">
@@ -2507,7 +2594,7 @@
       <c r="G8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>71.428600000000003</v>
       </c>
       <c r="I8" s="3">
@@ -2535,7 +2622,7 @@
       <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>85.714299999999994</v>
       </c>
       <c r="I9" s="3"/>
@@ -2559,7 +2646,7 @@
       <c r="G10" s="3">
         <v>50000</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>100</v>
       </c>
       <c r="I10" s="3"/>
@@ -2588,7 +2675,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2627,62 +2714,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" s="30"/>
+      <c r="N1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
@@ -2694,7 +2781,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>20</v>
@@ -2712,7 +2799,7 @@
         <v>40000</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -2745,40 +2832,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2849,74 +2936,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>1000</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2945,23 +3032,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>43</v>
+      <c r="F1" s="27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2969,19 +3056,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3005,19 +3092,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3029,13 +3116,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD181707-F235-418D-A232-3A52D791EE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45B4A94-3C04-49FE-96B8-C869DA31742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
@@ -2006,7 +2006,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,28 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF09179-4199-4A30-9546-AE7BACEED521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45B4A94-3C04-49FE-96B8-C869DA31742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="7" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="CoverAmount" sheetId="16" r:id="rId2"/>
+    <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
+    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId2"/>
     <sheet name="CoverDropDown" sheetId="14" r:id="rId3"/>
     <sheet name="Cover_Coordinates" sheetId="13" r:id="rId4"/>
     <sheet name="PLA" sheetId="5" r:id="rId5"/>
     <sheet name="Affordability_Check" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId7"/>
-    <sheet name="Scenarios" sheetId="17" r:id="rId8"/>
-    <sheet name="Extended" sheetId="7" r:id="rId9"/>
-    <sheet name="Parent" sheetId="11" r:id="rId10"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId11"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId12"/>
-    <sheet name="Child" sheetId="12" r:id="rId13"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId14"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId7"/>
+    <sheet name="Extended" sheetId="7" r:id="rId8"/>
+    <sheet name="Parents" sheetId="11" r:id="rId9"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId10"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId11"/>
+    <sheet name="Children" sheetId="12" r:id="rId12"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId13"/>
+    <sheet name="BankDetails" sheetId="19" r:id="rId14"/>
+    <sheet name="PhysicalAddress" sheetId="20" r:id="rId15"/>
+    <sheet name="Product_Details" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>Town</t>
   </si>
@@ -127,9 +129,6 @@
     <t>Safrican</t>
   </si>
   <si>
-    <t>Nike</t>
-  </si>
-  <si>
     <t>Net_Salary</t>
   </si>
   <si>
@@ -172,37 +171,13 @@
     <t>0789654565</t>
   </si>
   <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Truly good</t>
-  </si>
-  <si>
     <t>Salary_PayDate</t>
   </si>
   <si>
     <t>Account Number</t>
   </si>
   <si>
-    <t>PLA1</t>
-  </si>
-  <si>
-    <t>Parent1</t>
-  </si>
-  <si>
-    <t>Child1</t>
-  </si>
-  <si>
-    <t>Child2</t>
-  </si>
-  <si>
-    <t>LindoKuhle</t>
-  </si>
-  <si>
     <t>Extended_RelationshipType</t>
-  </si>
-  <si>
-    <t>Cousin</t>
   </si>
   <si>
     <t>Cover Amount</t>
@@ -281,18 +256,6 @@
     <t>New Business</t>
   </si>
   <si>
-    <t>Validations</t>
-  </si>
-  <si>
-    <t>Maximum Validation for Child</t>
-  </si>
-  <si>
-    <t>Maximum Validation for Parent</t>
-  </si>
-  <si>
-    <t>Maximum Validation for Extended</t>
-  </si>
-  <si>
     <t>Permanent</t>
   </si>
   <si>
@@ -320,9 +283,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Maximum and Minimum age  Validation for spouse</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -332,50 +292,179 @@
     <t>Test_Date</t>
   </si>
   <si>
-    <t>Maximum and Minimum age  Validation for Main Life</t>
-  </si>
-  <si>
-    <t>MaxMinAgeMainLife</t>
-  </si>
-  <si>
-    <t>MaxMinAgeSpouse</t>
-  </si>
-  <si>
-    <t>MaxMinAgeChild</t>
-  </si>
-  <si>
-    <t>MaxMinAgeParent</t>
-  </si>
-  <si>
-    <t>MaxMinAgeExtended</t>
+    <t>Scenario_id</t>
+  </si>
+  <si>
+    <t>scenario_id</t>
+  </si>
+  <si>
+    <t>0789654566</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Account_Type</t>
+  </si>
+  <si>
+    <t>Account_Number</t>
+  </si>
+  <si>
+    <t>Salary_Date</t>
+  </si>
+  <si>
+    <t>Debit_Order_Day</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Call_Ref_Number</t>
+  </si>
+  <si>
+    <t>Card_Number</t>
+  </si>
+  <si>
+    <t>FNB</t>
+  </si>
+  <si>
+    <t>62429363625</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Create a client</t>
+  </si>
+  <si>
+    <t>Kabelo</t>
+  </si>
+  <si>
+    <t>Motha</t>
+  </si>
+  <si>
+    <t>8307068394080</t>
+  </si>
+  <si>
+    <t>uncle</t>
+  </si>
+  <si>
+    <t>0789654665</t>
+  </si>
+  <si>
+    <t>Xulu</t>
+  </si>
+  <si>
+    <t>6711128666084</t>
+  </si>
+  <si>
+    <t>0729654565</t>
+  </si>
+  <si>
+    <t>7404056459081</t>
+  </si>
+  <si>
+    <t>Melusi</t>
+  </si>
+  <si>
+    <t>African rain</t>
+  </si>
+  <si>
+    <t>Add 4 Life assured</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:28:53</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:29:22</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:29:42</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:36:54</t>
-  </si>
-  <si>
-    <t>04/03/2022 08:38:33</t>
+    <t>0824123432</t>
+  </si>
+  <si>
+    <t>0679587875</t>
+  </si>
+  <si>
+    <t>0820678899</t>
+  </si>
+  <si>
+    <t>Mel@gmail.com</t>
+  </si>
+  <si>
+    <t>27 Beacon Avenue</t>
+  </si>
+  <si>
+    <t>Sandton</t>
+  </si>
+  <si>
+    <t>Test for 1 mainlife ,1 spouse with 2 children,1  beneficiary, 1 parent,</t>
+  </si>
+  <si>
+    <t>09876566</t>
+  </si>
+  <si>
+    <t>Covered</t>
+  </si>
+  <si>
+    <t>Zimbezi</t>
+  </si>
+  <si>
+    <t>9909160332089</t>
+  </si>
+  <si>
+    <t>Escalations</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>7105297800088</t>
+  </si>
+  <si>
+    <t>Motheo</t>
+  </si>
+  <si>
+    <t>Fifi</t>
+  </si>
+  <si>
+    <t>Amogelang</t>
+  </si>
+  <si>
+    <t>Bokang</t>
+  </si>
+  <si>
+    <t>0005296722084</t>
+  </si>
+  <si>
+    <t>0005296114084</t>
+  </si>
+  <si>
+    <t>10017408</t>
+  </si>
+  <si>
+    <t>6105298570087</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,12 +485,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -468,14 +551,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,7 +695,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -624,25 +707,17 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,53 +726,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,19 +788,7 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -735,22 +799,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -763,6 +817,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -783,7 +839,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -796,6 +852,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1092,8 +1150,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I6" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}" name="Table2" displayName="Table2" ref="B1:J2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B1:J2" xr:uid="{77094FBE-62A7-4D62-9AD5-A2591B43D462}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{6F04CA4E-DCDF-4D0E-864E-A4EC9DCC22FA}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{90CFC39C-5F10-4E1C-A1C9-7C8B4689C428}" name="Functionality" dataDxfId="7"/>
@@ -1405,501 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="30">
-        <v>35919</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7">
-        <v>36202</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10">
-        <v>62429363625</v>
-      </c>
-      <c r="G2" s="2">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884330D-945B-460E-9013-EA13CCDB12FF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1908,50 +1476,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
+      <c r="A1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2">
         <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2">
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2">
         <v>7500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2">
         <v>20000</v>
       </c>
     </row>
@@ -1978,12 +1546,708 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="2">
+        <v>830678899</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2">
+        <v>62429363625</v>
+      </c>
+      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2191</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="5">
+        <v>26082</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="5">
+        <v>26082</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{B13CD0C0-9D1F-4B1E-A104-0C1F13197844}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655D703-28F5-487A-8779-E3AC589F989A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1995,8 +2259,8 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2006,8 +2270,8 @@
       <c r="B2" s="3">
         <v>12.5</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2017,8 +2281,8 @@
       <c r="B3" s="3">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2028,8 +2292,8 @@
       <c r="B4" s="3">
         <v>37.5</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2039,8 +2303,8 @@
       <c r="B5" s="3">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2085,7 +2349,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2099,57 +2363,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="36"/>
+      <c r="A1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>53</v>
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2174,7 +2438,7 @@
       <c r="G3" s="3">
         <v>5000</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -2206,7 +2470,7 @@
       <c r="G4" s="3">
         <v>7500</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>14.2857</v>
       </c>
       <c r="I4" s="3">
@@ -2238,7 +2502,7 @@
       <c r="G5" s="3">
         <v>10000</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>28.571400000000001</v>
       </c>
       <c r="I5" s="3">
@@ -2270,7 +2534,7 @@
       <c r="G6" s="3">
         <v>15000</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>42.857100000000003</v>
       </c>
       <c r="I6" s="3">
@@ -2302,7 +2566,7 @@
       <c r="G7" s="3">
         <v>20000</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>57.142899999999997</v>
       </c>
       <c r="I7" s="3">
@@ -2330,7 +2594,7 @@
       <c r="G8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>71.428600000000003</v>
       </c>
       <c r="I8" s="3">
@@ -2358,7 +2622,7 @@
       <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>85.714299999999994</v>
       </c>
       <c r="I9" s="3"/>
@@ -2382,7 +2646,7 @@
       <c r="G10" s="3">
         <v>50000</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>100</v>
       </c>
       <c r="I10" s="3"/>
@@ -2411,7 +2675,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="12"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2428,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786073B4-85CC-4556-90E2-B38B107A54B7}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2444,61 +2708,68 @@
     <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
+      <c r="N1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
@@ -2509,8 +2780,8 @@
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2">
-        <v>830678899</v>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>20</v>
@@ -2525,8 +2796,12 @@
         <v>22</v>
       </c>
       <c r="M2" s="2">
-        <v>10000</v>
-      </c>
+        <v>40000</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2542,11 +2817,12 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
@@ -2556,52 +2832,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="4">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2622,7 +2898,7 @@
         <v>1000</v>
       </c>
       <c r="J2" s="4">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="K2" s="4">
         <v>5000</v>
@@ -2638,245 +2914,96 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670DEE1-CE9B-417F-9985-01ED7EF35F61}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:13" x14ac:dyDescent="0.35" outlineLevel="0" r="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row spans="1:13" ht="48" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
-      <c r="A2" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I2" s="32" t="inlineStr">
-        <is>
-          <t>04/03/2022 09:13:23</t>
-        </is>
-      </c>
-      <c r="K2" s="34">
-        <f>COUNTIF(Table2[Test_Results],"Passed")</f>
-        <v>5</v>
-      </c>
-      <c r="L2" s="34">
-        <f>COUNTIF(Table2[Test_Results],"Failed")</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="34">
-        <f>SUM(K2:L2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row spans="1:13" ht="36" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
-      <c r="A3" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I3" s="32" t="inlineStr">
-        <is>
-          <t>04/03/2022 09:13:52</t>
-        </is>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
-      <c r="A4" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I4" s="32" t="inlineStr">
-        <is>
-          <t>04/03/2022 09:14:03</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
-      <c r="A5" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="31" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I5" s="32" t="inlineStr">
-        <is>
-          <t>04/03/2022 09:14:20</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:13" ht="24" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
-      <c r="A6" s="24">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I6" s="32" t="inlineStr">
-        <is>
-          <t>04/03/2022 09:14:33</t>
-        </is>
-      </c>
+      <c r="E2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2888,67 +3015,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>36202</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45B4A94-3C04-49FE-96B8-C869DA31742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C96DF-F538-4B30-8047-25C1CF824B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
   <si>
     <t>Town</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Test_Date</t>
   </si>
   <si>
-    <t>Scenario_id</t>
-  </si>
-  <si>
     <t>scenario_id</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>Card_Number</t>
   </si>
   <si>
-    <t>FNB</t>
-  </si>
-  <si>
     <t>62429363625</t>
   </si>
   <si>
@@ -430,15 +424,9 @@
     <t>Wife</t>
   </si>
   <si>
-    <t>7105297800088</t>
-  </si>
-  <si>
     <t>Motheo</t>
   </si>
   <si>
-    <t>Fifi</t>
-  </si>
-  <si>
     <t>Amogelang</t>
   </si>
   <si>
@@ -454,10 +442,34 @@
     <t>10017408</t>
   </si>
   <si>
-    <t>6105298570087</t>
-  </si>
-  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>FIRST NATIONAL BANK</t>
+  </si>
+  <si>
+    <t>Makola</t>
+  </si>
+  <si>
+    <t>Thabang</t>
+  </si>
+  <si>
+    <t>Yen</t>
+  </si>
+  <si>
+    <t>Lethoko</t>
+  </si>
+  <si>
+    <t>Helens</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>9505259824083</t>
+  </si>
+  <si>
+    <t>9309248678084</t>
   </si>
 </sst>
 </file>
@@ -1585,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>3</v>
@@ -1638,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1649,16 +1661,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1708,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>39</v>
@@ -1725,16 +1737,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>3</v>
@@ -1798,13 +1810,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>830678899</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2">
         <v>62429363625</v>
@@ -1827,13 +1839,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
@@ -1845,19 +1857,19 @@
         <v>23</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1865,16 +1877,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E2" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>15</v>
@@ -1890,7 +1902,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1905,22 +1917,22 @@
         <v>23</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1931,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1943,7 +1955,7 @@
         <v>2191</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1986,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -2006,7 +2018,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2016,17 +2028,16 @@
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
@@ -2049,52 +2060,52 @@
         <v>4</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="M1" s="29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2108,66 +2119,66 @@
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="P2" s="5">
         <v>10000</v>
       </c>
+      <c r="Q2" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="5">
+        <v>26082</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="5">
-        <v>26082</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2176,67 +2187,67 @@
         <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="P3" s="5">
         <v>10000</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="5">
+        <v>26082</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="5">
-        <v>26082</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{B13CD0C0-9D1F-4B1E-A104-0C1F13197844}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{B13CD0C0-9D1F-4B1E-A104-0C1F13197844}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2695,7 +2706,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2754,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O1" s="29"/>
     </row>
@@ -2763,13 +2774,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
@@ -2987,16 +2998,16 @@
         <v>63</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
@@ -3056,19 +3067,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3116,13 +3127,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -5,30 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C96DF-F538-4B30-8047-25C1CF824B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF9B1D-21BF-4A12-9C17-EB266502BB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="CoverAmount" sheetId="16" r:id="rId1"/>
-    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId2"/>
-    <sheet name="CoverDropDown" sheetId="14" r:id="rId3"/>
-    <sheet name="Cover_Coordinates" sheetId="13" r:id="rId4"/>
-    <sheet name="PLA" sheetId="5" r:id="rId5"/>
-    <sheet name="Affordability_Check" sheetId="8" r:id="rId6"/>
-    <sheet name="Scenarios" sheetId="17" r:id="rId7"/>
-    <sheet name="Extended" sheetId="7" r:id="rId8"/>
-    <sheet name="Parents" sheetId="11" r:id="rId9"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId10"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId11"/>
-    <sheet name="Children" sheetId="12" r:id="rId12"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId13"/>
-    <sheet name="BankDetails" sheetId="19" r:id="rId14"/>
-    <sheet name="PhysicalAddress" sheetId="20" r:id="rId15"/>
-    <sheet name="Product_Details" sheetId="21" r:id="rId16"/>
+    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
+    <sheet name="CoverAmount" sheetId="16" r:id="rId2"/>
+    <sheet name="Cover_Coordinates" sheetId="13" r:id="rId3"/>
+    <sheet name="PLA" sheetId="5" r:id="rId4"/>
+    <sheet name="Affordability_Check" sheetId="8" r:id="rId5"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId6"/>
+    <sheet name="Extended" sheetId="7" r:id="rId7"/>
+    <sheet name="Parents" sheetId="11" r:id="rId8"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId9"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId10"/>
+    <sheet name="Children" sheetId="12" r:id="rId11"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId12"/>
+    <sheet name="BankDetails" sheetId="19" r:id="rId13"/>
+    <sheet name="PhysicalAddress" sheetId="20" r:id="rId14"/>
+    <sheet name="Product_Details" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
   <si>
     <t>Town</t>
   </si>
@@ -470,6 +469,12 @@
   </si>
   <si>
     <t>9309248678084</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>7500</t>
   </si>
 </sst>
 </file>
@@ -707,7 +712,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -792,6 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1475,147 +1481,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884330D-945B-460E-9013-EA13CCDB12FF}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2">
-        <v>20000</v>
+      <c r="Q2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="5">
+        <v>26082</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="5">
+        <v>26082</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{B13CD0C0-9D1F-4B1E-A104-0C1F13197844}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16E40F73-26F5-4C00-8505-E173D1067E16}">
-          <x14:formula1>
-            <xm:f>Cover_Coordinates!$A$3:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CCE722E-BA70-4DAE-84B2-2685D054C6B5}">
-          <x14:formula1>
-            <xm:f>CoverDropDown!$C$1:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1682,7 +1797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1755,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1834,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1897,7 +2012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1963,7 +2078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2014,348 +2129,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884330D-945B-460E-9013-EA13CCDB12FF}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2">
         <v>10000</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" s="5">
-        <v>26082</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="5">
-        <v>10000</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="5">
-        <v>26082</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>70</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{2B0DDEB7-EB30-4148-9844-AB5C379E22BB}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{B13CD0C0-9D1F-4B1E-A104-0C1F13197844}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16E40F73-26F5-4C00-8505-E173D1067E16}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$A$3:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CCE722E-BA70-4DAE-84B2-2685D054C6B5}">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E49BCB4D-F701-4120-9B4E-08CC462EEA0E}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$E$3:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F544600E-4F70-4822-BC8E-F26683D2CDB3}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$C$3:$C$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5A3BF11-D570-4F2B-A8C4-D593DA2995EE}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$G$3:$G$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{269726C2-213A-4671-86B1-9894FBD2B998}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$I$3:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8655D703-28F5-487A-8779-E3AC589F989A}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
-        <v>5000</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>7500</v>
-      </c>
-      <c r="B2" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B3" s="3">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>15000</v>
-      </c>
-      <c r="B4" s="3">
-        <v>37.5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>20000</v>
-      </c>
-      <c r="B5" s="3">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>30000</v>
-      </c>
-      <c r="B6" s="3">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>40000</v>
-      </c>
-      <c r="B7" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>50000</v>
-      </c>
-      <c r="B8" s="3">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>60000</v>
-      </c>
-      <c r="B9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -2701,7 +2582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786073B4-85CC-4556-90E2-B38B107A54B7}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -2822,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2"/>
@@ -2924,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -3026,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3087,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3139,4 +3020,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
+++ b/ILR_TestSuite/New Business/SalesAppBase/TestData.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF9B1D-21BF-4A12-9C17-EB266502BB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8732B7-6165-4CFC-B41C-D0EC7BEBD5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="CoverAmount" sheetId="16" r:id="rId2"/>
-    <sheet name="Cover_Coordinates" sheetId="13" r:id="rId3"/>
-    <sheet name="PLA" sheetId="5" r:id="rId4"/>
-    <sheet name="Affordability_Check" sheetId="8" r:id="rId5"/>
-    <sheet name="Scenarios" sheetId="17" r:id="rId6"/>
-    <sheet name="Extended" sheetId="7" r:id="rId7"/>
-    <sheet name="Parents" sheetId="11" r:id="rId8"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId9"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId10"/>
-    <sheet name="Children" sheetId="12" r:id="rId11"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId12"/>
-    <sheet name="BankDetails" sheetId="19" r:id="rId13"/>
-    <sheet name="PhysicalAddress" sheetId="20" r:id="rId14"/>
-    <sheet name="Product_Details" sheetId="21" r:id="rId15"/>
+    <sheet name="Cover_Coordinates" sheetId="13" r:id="rId2"/>
+    <sheet name="Affordability_Check" sheetId="8" r:id="rId3"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId4"/>
+    <sheet name="Extended" sheetId="7" r:id="rId5"/>
+    <sheet name="Parents" sheetId="11" r:id="rId6"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId7"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId8"/>
+    <sheet name="Children" sheetId="12" r:id="rId9"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId10"/>
+    <sheet name="BankDetails" sheetId="19" r:id="rId11"/>
+    <sheet name="PhysicalAddress" sheetId="20" r:id="rId12"/>
+    <sheet name="Product_Details" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="130">
   <si>
     <t>Town</t>
   </si>
@@ -101,21 +99,9 @@
     <t>Ndaba</t>
   </si>
   <si>
-    <t>7108132234083</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
-    <t>nape@gmail.com</t>
-  </si>
-  <si>
-    <t>South African</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -200,13 +186,7 @@
     <t>Extended</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
     <t>Cover_Amount</t>
-  </si>
-  <si>
-    <t>Myself</t>
   </si>
   <si>
     <t>Scenaro_id</t>
@@ -267,9 +247,6 @@
     <t>BLACKAFRICAN</t>
   </si>
   <si>
-    <t>0830678899</t>
-  </si>
-  <si>
     <t>ZA</t>
   </si>
   <si>
@@ -367,9 +344,6 @@
   </si>
   <si>
     <t>7404056459081</t>
-  </si>
-  <si>
-    <t>Melusi</t>
   </si>
   <si>
     <t>African rain</t>
@@ -712,7 +686,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -791,13 +765,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1484,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,7 +1487,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
@@ -1558,25 +1535,25 @@
         <v>14</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="S1" s="29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>51</v>
+        <v>106</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1584,141 +1561,141 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P2" s="5">
         <v>10000</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T2" s="5">
         <v>26082</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P3" s="5">
         <v>10000</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="T3" s="5">
         <v>26082</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1704,1059 @@
     <hyperlink ref="L3" r:id="rId2" xr:uid="{B13CD0C0-9D1F-4B1E-A104-0C1F13197844}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{210A6DB7-73DC-4D6A-A755-D900BDD8CC07}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$A$3:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2 W3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2">
+        <v>830678899</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="2">
+        <v>62429363625</v>
+      </c>
+      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2191</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H4" s="11">
+        <v>14.2857</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="11">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>42.857100000000003</v>
+      </c>
+      <c r="I6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>57.142899999999997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="11">
+        <v>71.428600000000003</v>
+      </c>
+      <c r="I8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>85.714299999999994</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>40000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>800</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1200</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="4">
+        <v>12000</v>
+      </c>
+      <c r="K2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L2" s="4">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10208573-48AA-4AF8-B322-D7104D04FBE0}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$I$3:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BBAEF30-BE4B-46CE-845C-CF7FE09D0D2B}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$E$3:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A3AE6A7-1F03-489B-8034-5E9E23224249}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$C$3:$C$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1750,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>3</v>
@@ -1762,10 +2788,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1776,16 +2802,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1797,12 +2823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1811,11 +2837,12 @@
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>3</v>
@@ -1827,1254 +2854,66 @@
         <v>6</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="2">
-        <v>830678899</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="2">
-        <v>62429363625</v>
-      </c>
-      <c r="H2" s="2">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2191</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884330D-945B-460E-9013-EA13CCDB12FF}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16E40F73-26F5-4C00-8505-E173D1067E16}">
-          <x14:formula1>
-            <xm:f>Cover_Coordinates!$A$3:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CCE722E-BA70-4DAE-84B2-2685D054C6B5}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E49BCB4D-F701-4120-9B4E-08CC462EEA0E}">
-          <x14:formula1>
-            <xm:f>Cover_Coordinates!$E$3:$E$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F544600E-4F70-4822-BC8E-F26683D2CDB3}">
-          <x14:formula1>
-            <xm:f>Cover_Coordinates!$C$3:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5A3BF11-D570-4F2B-A8C4-D593DA2995EE}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D3339F5-512A-41D0-967A-447E2468BCB9}">
           <x14:formula1>
             <xm:f>Cover_Coordinates!$G$3:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{269726C2-213A-4671-86B1-9894FBD2B998}">
-          <x14:formula1>
-            <xm:f>Cover_Coordinates!$I$3:$I$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>7500</v>
-      </c>
-      <c r="B4" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7500</v>
-      </c>
-      <c r="D4" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F4" s="3">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H4" s="11">
-        <v>14.2857</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B5" s="3">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="11">
-        <v>28.571400000000001</v>
-      </c>
-      <c r="I5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>15000</v>
-      </c>
-      <c r="B6" s="3">
-        <v>37.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>15000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>37.5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>75</v>
-      </c>
-      <c r="G6" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H6" s="11">
-        <v>42.857100000000003</v>
-      </c>
-      <c r="I6" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="B7" s="3">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H7" s="11">
-        <v>57.142899999999997</v>
-      </c>
-      <c r="I7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>30000</v>
-      </c>
-      <c r="B8" s="3">
-        <v>62.5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>62.5</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H8" s="11">
-        <v>71.428600000000003</v>
-      </c>
-      <c r="I8" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>40000</v>
-      </c>
-      <c r="B9" s="3">
-        <v>75</v>
-      </c>
-      <c r="C9" s="3">
-        <v>40000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>75</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>40000</v>
-      </c>
-      <c r="H9" s="10">
-        <v>85.714299999999994</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>50000</v>
-      </c>
-      <c r="B10" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>50000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>87.5</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>50000</v>
-      </c>
-      <c r="H10" s="9">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>60000</v>
-      </c>
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="3">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>60000</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786073B4-85CC-4556-90E2-B38B107A54B7}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2">
-        <v>40000</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{FA2EA09A-70B7-4B52-B4E3-A0751D163E8B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>40000</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4000</v>
-      </c>
-      <c r="G2" s="4">
-        <v>800</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1200</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="4">
-        <v>12000</v>
-      </c>
-      <c r="K2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="L2" s="4">
-        <v>6000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>